--- a/data/MA/REMOVED.lines_contamination.xlsx
+++ b/data/MA/REMOVED.lines_contamination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Box Sync\Mycoplasma\Experiments\data\MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmoge\Documents\GitHub\MinimalCell\data\MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E48DB0-1B7A-47D2-A9B6-60C947B8468A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA622B0-7FE3-4B33-858E-01AF0F6A3707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4680" yWindow="4680" windowWidth="20940" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>These lines all shared alleles with line 3, indicating cross contamination among all of these lines and line 3. I kept line 3 because it was the lowest number (same protocol used to address corss contamination in NSE)</t>
-  </si>
-  <si>
     <t>s1_dont.map</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>3B_plate.cross</t>
+  </si>
+  <si>
+    <t>These lines all shared alleles with line 3, indicating cross contamination among all of these lines and line 3. I kept line 3 because it was the lowest number (same protocol used to address cross contamination in NSE)</t>
   </si>
 </sst>
 </file>
@@ -375,23 +375,28 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:XFD15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +621,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
